--- a/DSA Exercise/DSA%20QUESTIONS.xlsx
+++ b/DSA Exercise/DSA%20QUESTIONS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Git Hub\Data-Structure\DSA Exercise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Data-Structure\DSA Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2303D842-7933-43C4-957E-6193A8B1BECD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6A630C-5860-41AC-958E-D36562263369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
@@ -1916,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:C481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1994,7 +1994,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="21">
@@ -2005,7 +2005,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="21">
@@ -2016,7 +2016,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>4</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="21">
